--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/60.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/60.xlsx
@@ -479,13 +479,13 @@
         <v>-6.732810346808827</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.230442801735538</v>
+        <v>-9.139477481591225</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.709255219037797</v>
+        <v>-1.728291427369667</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.858055248654445</v>
+        <v>-7.811551388960634</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-6.681584145030732</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.868208150064541</v>
+        <v>-9.78795233364476</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.715369324464883</v>
+        <v>-1.736172993680386</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.68250055984974</v>
+        <v>-7.655216200727583</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-6.581474555540906</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.42389785187876</v>
+        <v>-10.3390990063729</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.716194139543912</v>
+        <v>-1.736343193617328</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.476139682458454</v>
+        <v>-7.457574797028887</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-6.442538620165461</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.0645304145301</v>
+        <v>-10.9841436750819</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.716207231846754</v>
+        <v>-1.736068255257652</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.050548193982465</v>
+        <v>-7.032755754420559</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-6.275965601600655</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.69341918153241</v>
+        <v>-11.6053079834076</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.765224813686176</v>
+        <v>-1.788725497287075</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.799647302323626</v>
+        <v>-6.78283678547485</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-6.094931947608968</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.4885016408076</v>
+        <v>-12.40184368829821</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.560513566452947</v>
+        <v>-1.578188175289277</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.415348937010441</v>
+        <v>-6.403173095367636</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-5.917928700021271</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.13001138774933</v>
+        <v>-13.04309158918311</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.467414200945433</v>
+        <v>-1.483845041011799</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.769950776124713</v>
+        <v>-5.745769292776044</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-5.76136125336418</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.74788952806175</v>
+        <v>-13.65861311498402</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.354833488809431</v>
+        <v>-1.372455728434394</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.359546358945126</v>
+        <v>-5.34349519566117</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.637782720182173</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.38175337014392</v>
+        <v>-14.29402184880151</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.282341407974793</v>
+        <v>-1.29635017201544</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.968584011485502</v>
+        <v>-4.947767249967157</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.55476545176402</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.21998805958543</v>
+        <v>-15.13647225975806</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.159993837918863</v>
+        <v>-1.179030046250733</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.411729094718367</v>
+        <v>-4.385190996858189</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.521606885920274</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.98922631305105</v>
+        <v>-15.91175915713655</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9207189111834778</v>
+        <v>-0.9401217039949159</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.880679106852274</v>
+        <v>-3.858147253661664</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.540083728516012</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.74991529276101</v>
+        <v>-16.67607470473368</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.82349547028082</v>
+        <v>-0.8479257073834809</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.410128650417798</v>
+        <v>-3.38716475123341</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.614848477515384</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.46855179574336</v>
+        <v>-17.40227855875854</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6491845502460791</v>
+        <v>-0.6676185126472295</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.855525609739439</v>
+        <v>-2.817610300709801</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.74351585892528</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.24421836990426</v>
+        <v>-18.17173938137246</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4581023902710872</v>
+        <v>-0.4821398582884963</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.569773007915927</v>
+        <v>-2.535117682293877</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.919281462309196</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.11134777171746</v>
+        <v>-19.03961504444764</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2936892511846912</v>
+        <v>-0.3189573956692225</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.009789030769619</v>
+        <v>-1.971467860351887</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-6.13071312250749</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.94252570992728</v>
+        <v>-19.86941829085908</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.05462380129477323</v>
+        <v>-0.07693308533707445</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.740205422955638</v>
+        <v>-1.700339360802582</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-6.371141106359736</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.68417848130538</v>
+        <v>-20.61125435447697</v>
       </c>
       <c r="F18" t="n">
-        <v>0.05380665084040206</v>
+        <v>0.0319817820032447</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.304912538073929</v>
+        <v>-1.261393723428032</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-6.630044157203908</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.41844719388074</v>
+        <v>-21.33574311682956</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3283784260370812</v>
+        <v>0.3064357264743482</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.9234421101745568</v>
+        <v>-0.8796483571689832</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-6.902739785517368</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.0405410557082</v>
+        <v>-21.97082454307601</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4742397719967513</v>
+        <v>0.4558712711098096</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.6973380400979476</v>
+        <v>-0.6497344269654317</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-7.182921089955558</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.65929638031102</v>
+        <v>-22.58921328319926</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6594434879958082</v>
+        <v>0.6425151404214564</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.3693889462155514</v>
+        <v>-0.3131444132074962</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-7.464322304629118</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.11646650324125</v>
+        <v>-23.04376494556114</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8300623786291824</v>
+        <v>0.811968816101917</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.2419746549598733</v>
+        <v>-0.1953267799348033</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-7.740617570619025</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.55148444976328</v>
+        <v>-23.48472679757332</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9162751928419486</v>
+        <v>0.8949216469070933</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1015858915880446</v>
+        <v>-0.05293489422819057</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-8.013470142002932</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.03308480979618</v>
+        <v>-23.97211395546226</v>
       </c>
       <c r="F24" t="n">
-        <v>1.059046755330971</v>
+        <v>1.03961777791385</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1250472982804177</v>
+        <v>-0.09122988004023933</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-8.282331310508059</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.27733481161142</v>
+        <v>-24.22101172478631</v>
       </c>
       <c r="F25" t="n">
-        <v>1.111088659126833</v>
+        <v>1.093793727072912</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06278797058982614</v>
+        <v>0.1001403105972706</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-8.551366600811443</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.54788724983569</v>
+        <v>-24.48932537922465</v>
       </c>
       <c r="F26" t="n">
-        <v>1.245742993853985</v>
+        <v>1.230346445712115</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.03698846936696822</v>
+        <v>-0.001796359328408551</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-8.821751742697309</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.60170970681802</v>
+        <v>-24.54059483715285</v>
       </c>
       <c r="F27" t="n">
-        <v>1.21309079056672</v>
+        <v>1.198545242109563</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.2320506894058449</v>
+        <v>-0.2015849006931484</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-9.091710912384469</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.68506839901129</v>
+        <v>-24.62353457565518</v>
       </c>
       <c r="F28" t="n">
-        <v>1.143400462540212</v>
+        <v>1.127336206953415</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.5739038089061543</v>
+        <v>-0.5541475239179896</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-9.357260376207137</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.50010034446339</v>
+        <v>-24.43568621448209</v>
       </c>
       <c r="F29" t="n">
-        <v>1.156008350176795</v>
+        <v>1.141750832382155</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.6187842230475913</v>
+        <v>-0.6032305672716207</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-9.619147600189182</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.23807099538908</v>
+        <v>-24.17534577247437</v>
       </c>
       <c r="F30" t="n">
-        <v>1.047826651795612</v>
+        <v>1.02968072005698</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9305119537090889</v>
+        <v>-0.919710803864665</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-9.873602081166435</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.01966519938341</v>
+        <v>-23.95344433160995</v>
       </c>
       <c r="F31" t="n">
-        <v>0.976185570645687</v>
+        <v>0.9604878995384575</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.138155876778864</v>
+        <v>-1.134110355200771</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-10.12016954847006</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.67419860429878</v>
+        <v>-23.60751950592587</v>
       </c>
       <c r="F32" t="n">
-        <v>0.957686146730328</v>
+        <v>0.9376942002910124</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.382274955565689</v>
+        <v>-1.380180187111012</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-10.35422241305657</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.34658991029027</v>
+        <v>-23.27483099841477</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9209884218649699</v>
+        <v>0.9013761522080642</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.654306824011073</v>
+        <v>-1.658640376251684</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-10.56748640464445</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.90063989089539</v>
+        <v>-22.82497947277306</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8638536122636774</v>
+        <v>0.8386509292933547</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.889928998253617</v>
+        <v>-1.896959564879624</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-10.75100092442162</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.53628110281016</v>
+        <v>-22.46376283736984</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7859544103554073</v>
+        <v>0.75753102088602</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.155846761271915</v>
+        <v>-2.173717754650871</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-10.9000221165487</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.97073289695612</v>
+        <v>-21.89274204892796</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8326808391975276</v>
+        <v>0.8051215417156942</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.445134284862694</v>
+        <v>-2.470860659946686</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-11.00807537852766</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.52312015510034</v>
+        <v>-21.4446317995642</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8492818792008362</v>
+        <v>0.8227961505520244</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.631477031208981</v>
+        <v>-2.654126715125168</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-11.07476541516463</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.0417554565186</v>
+        <v>-20.96101522489368</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9435857365697891</v>
+        <v>0.9181735767539988</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.763866397544515</v>
+        <v>-2.785691266381673</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-11.09811709821898</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.56662269408952</v>
+        <v>-20.47399465148431</v>
       </c>
       <c r="F39" t="n">
-        <v>0.961561468371479</v>
+        <v>0.9373930773256527</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.812124625819118</v>
+        <v>-2.842394029989189</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-11.07594650264834</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.91031864493664</v>
+        <v>-19.81652538737851</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9843944445274493</v>
+        <v>0.9577123313360115</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.926237137387602</v>
+        <v>-2.961206678277852</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-11.00940332811911</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.36912212236821</v>
+        <v>-19.28006827843879</v>
       </c>
       <c r="F41" t="n">
-        <v>1.059622816656007</v>
+        <v>1.030492442833167</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.080634664800078</v>
+        <v>-3.116664682220508</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-10.90443959625872</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.60896992707475</v>
+        <v>-18.5207539905272</v>
       </c>
       <c r="F42" t="n">
-        <v>1.036868394317087</v>
+        <v>1.00700485153511</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.296984969259601</v>
+        <v>-3.331823587121434</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-10.76735198116891</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.09670739378653</v>
+        <v>-18.00201076733233</v>
       </c>
       <c r="F43" t="n">
-        <v>1.132952804872515</v>
+        <v>1.110381674773379</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.339338568952585</v>
+        <v>-3.370275680567584</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-10.6096810646912</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.53020344982504</v>
+        <v>-17.44139835964962</v>
       </c>
       <c r="F44" t="n">
-        <v>1.098362940764675</v>
+        <v>1.065396522209209</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.493945573210528</v>
+        <v>-3.520392024950814</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-10.43936414544096</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.8931450858495</v>
+        <v>-16.7957514450099</v>
       </c>
       <c r="F45" t="n">
-        <v>1.108299998621545</v>
+        <v>1.081827362275575</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.667470955074765</v>
+        <v>-3.696470405869189</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-10.261426424487</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.41545932436628</v>
+        <v>-16.3200164366501</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9451960898193215</v>
+        <v>0.9121511174468048</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.829056156747348</v>
+        <v>-3.857270069371268</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-10.08220676429773</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.81753385358465</v>
+        <v>-15.72290268864465</v>
       </c>
       <c r="F47" t="n">
-        <v>1.018801016395505</v>
+        <v>0.9883352276828088</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.817364730309687</v>
+        <v>-3.836021261859146</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-9.908934376184268</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.19250731592065</v>
+        <v>-15.08382811003148</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9957323787883841</v>
+        <v>0.9685265734832773</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.964469845039321</v>
+        <v>-3.982432484538169</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-9.747770192755093</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.68040189026653</v>
+        <v>-14.57571583674409</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9191947763756535</v>
+        <v>0.8896978180732447</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.069797421401007</v>
+        <v>-4.087890983928273</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-9.60673128356842</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.16408074309738</v>
+        <v>-14.05676313670375</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9128973787087832</v>
+        <v>0.8833873281035326</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.156835050692802</v>
+        <v>-4.167701662051435</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-9.487530758253339</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.69084636458035</v>
+        <v>-13.57911665212906</v>
       </c>
       <c r="F51" t="n">
-        <v>1.023239307058851</v>
+        <v>0.9938078102706503</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.25565575254215</v>
+        <v>-4.263484949641502</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-9.386526733814776</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.07024502527685</v>
+        <v>-12.9489579317511</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9149266856492507</v>
+        <v>0.885141696684324</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.362567497547686</v>
+        <v>-4.370056294773153</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-9.300187145098089</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.66190919194626</v>
+        <v>-12.54458906618155</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9246935435691784</v>
+        <v>0.8967283846992515</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.559292440047462</v>
+        <v>-4.56223820818685</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-9.223587265735659</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.0436120979429</v>
+        <v>-11.91945779009481</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8961654156770573</v>
+        <v>0.8716566247573461</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.725342116989073</v>
+        <v>-4.738198758379649</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-9.151753074587679</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.65859365597342</v>
+        <v>-11.53628536282602</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8552650615995051</v>
+        <v>0.831463255033247</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.93982022214223</v>
+        <v>-4.955321508706834</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.081566286586147</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.29068685381808</v>
+        <v>-11.15787853379161</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7823147501654074</v>
+        <v>0.7563265290245812</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.15136565145884</v>
+        <v>-5.160176771271321</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-9.006231245791302</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.73965801181551</v>
+        <v>-10.60306601626778</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7615503578584298</v>
+        <v>0.7367535362762007</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.228047269202829</v>
+        <v>-5.239345926555239</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.916904527965935</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.50442860665822</v>
+        <v>-10.36765331887071</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6878406928595121</v>
+        <v>0.6556336278688659</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.383911134533578</v>
+        <v>-5.385796426142787</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.808499683753393</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.994863087755398</v>
+        <v>-9.860143291514037</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7115377610030362</v>
+        <v>0.6828918023853396</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.603534514703533</v>
+        <v>-5.60252640738472</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.676753951986802</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.862120229243137</v>
+        <v>-9.726732725556849</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6961673974668499</v>
+        <v>0.6671810389752684</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.666181183801192</v>
+        <v>-5.661441770172488</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.521220411324249</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.48796839863229</v>
+        <v>-9.350473034188482</v>
       </c>
       <c r="F61" t="n">
-        <v>0.7347504139414166</v>
+        <v>0.7025433489507704</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.673591427209609</v>
+        <v>-5.671444289543566</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.344392902202207</v>
       </c>
       <c r="E62" t="n">
-        <v>-9.21991659025079</v>
+        <v>-9.077838919812379</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6965077973407348</v>
+        <v>0.6639865170818872</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.772634698207266</v>
+        <v>-5.763090409435648</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.147051341138837</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.906840352396594</v>
+        <v>-8.757575007698076</v>
       </c>
       <c r="F63" t="n">
-        <v>0.656536996764945</v>
+        <v>0.6245001317112414</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.774664005147734</v>
+        <v>-5.757303611579605</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.928935551145526</v>
       </c>
       <c r="E64" t="n">
-        <v>-8.610941215870744</v>
+        <v>-8.453165874325103</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5569438490479348</v>
+        <v>0.522000492763368</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.713130181791621</v>
+        <v>-5.688294083300867</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.693173671087401</v>
       </c>
       <c r="E65" t="n">
-        <v>-8.490374199001289</v>
+        <v>-8.338804609002626</v>
       </c>
       <c r="F65" t="n">
-        <v>0.41370096365661</v>
+        <v>0.3823710829563595</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.726680715232808</v>
+        <v>-5.707042260970219</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.442314056800886</v>
       </c>
       <c r="E66" t="n">
-        <v>-8.294434794672016</v>
+        <v>-8.140731159310153</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3715306562034103</v>
+        <v>0.3381060070484836</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.713352750939931</v>
+        <v>-5.692391974090327</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.182088995508793</v>
       </c>
       <c r="E67" t="n">
-        <v>-8.167059780324864</v>
+        <v>-8.011326838022532</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2819007509489536</v>
+        <v>0.2452815799006458</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.668341413770077</v>
+        <v>-5.645704822156732</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-6.9191617157646</v>
       </c>
       <c r="E68" t="n">
-        <v>-8.026487724713251</v>
+        <v>-7.867822106574373</v>
       </c>
       <c r="F68" t="n">
-        <v>0.226965448225071</v>
+        <v>0.1901760772398208</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.620528323792093</v>
+        <v>-5.594212795080224</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-6.657624259541445</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.960528702996635</v>
+        <v>-7.800658592996318</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2203276506843159</v>
+        <v>0.1836953873331664</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.538256292734687</v>
+        <v>-5.507515565662314</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-6.399309067988227</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.970452668550664</v>
+        <v>-7.809273328266173</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1182731500330612</v>
+        <v>0.07843327248568879</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.432797793344583</v>
+        <v>-5.405880018701994</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-6.148295614978506</v>
       </c>
       <c r="E71" t="n">
-        <v>-8.034631137080805</v>
+        <v>-7.878400687270488</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1204595646076295</v>
+        <v>0.08050185633468152</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.265491255330166</v>
+        <v>-5.237499911854555</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.907015427915259</v>
       </c>
       <c r="E72" t="n">
-        <v>-8.05726772869415</v>
+        <v>-7.893339004812897</v>
       </c>
       <c r="F72" t="n">
-        <v>0.03737581077403584</v>
+        <v>0.003375100294073246</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.173308351021572</v>
+        <v>-5.152753435560062</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.681475141089861</v>
       </c>
       <c r="E73" t="n">
-        <v>-8.258116746589069</v>
+        <v>-8.103313357788499</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.002293866836394142</v>
+        <v>-0.03354519371959427</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.905570757908274</v>
+        <v>-4.884649257967196</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.47742665558813</v>
       </c>
       <c r="E74" t="n">
-        <v>-8.393556619486725</v>
+        <v>-8.233450848035258</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.05065683353373024</v>
+        <v>-0.0866999432570021</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.779177666274251</v>
+        <v>-4.753320368161842</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.298616687135961</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.722526912990777</v>
+        <v>-8.572122537945027</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.1343166486923598</v>
+        <v>-0.1690374358286174</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.531759327171311</v>
+        <v>-4.508599043444298</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.146242337699236</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.982697155061556</v>
+        <v>-8.831611980268038</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.1237380679962451</v>
+        <v>-0.160069208382035</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.239578404652511</v>
+        <v>-4.217622612786936</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.02483785075598</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.494134873270744</v>
+        <v>-9.347605819866144</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.2018467467499829</v>
+        <v>-0.2330326121189744</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.012714981011082</v>
+        <v>-3.994215557095723</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.937181382004847</v>
       </c>
       <c r="E78" t="n">
-        <v>-9.950231427367955</v>
+        <v>-9.801764713142781</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.1525018573395173</v>
+        <v>-0.1816060465566744</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.913776448436158</v>
+        <v>-3.901796991335978</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.889356518889652</v>
       </c>
       <c r="E79" t="n">
-        <v>-10.39063031035794</v>
+        <v>-10.24348591871978</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.2206342013278598</v>
+        <v>-0.2495027290938658</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.760465582159545</v>
+        <v>-3.752924415722711</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.886048716899545</v>
       </c>
       <c r="E80" t="n">
-        <v>-10.9843924288359</v>
+        <v>-10.83949991328651</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.2712752287196562</v>
+        <v>-0.3023694479687556</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.431861873135063</v>
+        <v>-3.424268337486862</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.929725617201924</v>
       </c>
       <c r="E81" t="n">
-        <v>-11.669381713515</v>
+        <v>-11.52204093733422</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.2908351291651949</v>
+        <v>-0.3194679954800499</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.278891406732336</v>
+        <v>-3.265615811650825</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-5.017959187181306</v>
       </c>
       <c r="E82" t="n">
-        <v>-12.50594058819278</v>
+        <v>-12.36430805605098</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.3596220882956237</v>
+        <v>-0.3853091864710902</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.939512732469112</v>
+        <v>-2.926721552592746</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-5.152726113510663</v>
       </c>
       <c r="E83" t="n">
-        <v>-13.41833008092982</v>
+        <v>-13.28050740891497</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.3392635573767397</v>
+        <v>-0.3636021483595084</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.77998302234268</v>
+        <v>-2.77854286903009</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-5.332453679804988</v>
       </c>
       <c r="E84" t="n">
-        <v>-14.36809809828</v>
+        <v>-14.23013141093389</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.3930336451477087</v>
+        <v>-0.4181708666038227</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.510569614465641</v>
+        <v>-2.504010370741936</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.557538784009491</v>
       </c>
       <c r="E85" t="n">
-        <v>-15.5899110763784</v>
+        <v>-15.45276920411132</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.4465549791646848</v>
+        <v>-0.4700425704627414</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.315978717329067</v>
+        <v>-2.305858367232412</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.826281093962127</v>
       </c>
       <c r="E86" t="n">
-        <v>-16.6504792526781</v>
+        <v>-16.51592965637369</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5418800361552923</v>
+        <v>-0.5655771042988165</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.07494942201289</v>
+        <v>-2.06516947179012</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.134667862706788</v>
       </c>
       <c r="E87" t="n">
-        <v>-17.8253825096946</v>
+        <v>-17.68941894468328</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.4719540466776334</v>
+        <v>-0.496109345420618</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.021388811087388</v>
+        <v>-2.006057724459727</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.472435919288381</v>
       </c>
       <c r="E88" t="n">
-        <v>-19.19132864977757</v>
+        <v>-19.06312882035138</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6273204045003966</v>
+        <v>-0.6509651034325539</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.987715408178469</v>
+        <v>-1.975683581866923</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.836909985573937</v>
       </c>
       <c r="E89" t="n">
-        <v>-20.71993356036613</v>
+        <v>-20.59563523718679</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6094886880299657</v>
+        <v>-0.6336963559843173</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.974191059342966</v>
+        <v>-1.962421079088254</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.22110203875775</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.35691655387851</v>
+        <v>-22.23176723101445</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6537144870293163</v>
+        <v>-0.6726066800299271</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.982596317767354</v>
+        <v>-1.973929213286131</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.620793430214669</v>
       </c>
       <c r="E91" t="n">
-        <v>-24.06560609005502</v>
+        <v>-23.9423813357087</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7962634803700298</v>
+        <v>-0.8158757500269355</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.019804642443539</v>
+        <v>-2.014659367426741</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-8.029848662200784</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.80676453727902</v>
+        <v>-25.67959899977733</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8442074933764306</v>
+        <v>-0.8636888400049191</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.081364650405336</v>
+        <v>-2.077764267123861</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-8.440732621131733</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.83519429345616</v>
+        <v>-27.70255617336663</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.015886860539985</v>
+        <v>-1.037148760354948</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.275824624513493</v>
+        <v>-2.271268503124572</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-8.839087939400212</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.8878448098905</v>
+        <v>-29.75482701301856</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.043472342627501</v>
+        <v>-1.064537857899839</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.346326675316188</v>
+        <v>-2.337450093989498</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-9.220776517426691</v>
       </c>
       <c r="E95" t="n">
-        <v>-32.08304431966555</v>
+        <v>-31.95475284411948</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.285116976177239</v>
+        <v>-1.30142998551803</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.558958765768661</v>
+        <v>-2.549872707596503</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.57548199963966</v>
       </c>
       <c r="E96" t="n">
-        <v>-34.34892917248308</v>
+        <v>-34.21698494444416</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.412347975193133</v>
+        <v>-1.430048768635147</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.773201209470666</v>
+        <v>-2.767401319311781</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.898321689053331</v>
       </c>
       <c r="E97" t="n">
-        <v>-36.55998346099946</v>
+        <v>-36.43060532431753</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.583634573271436</v>
+        <v>-1.603914550373269</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.862019391948936</v>
+        <v>-2.852763133839836</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-10.179570700183</v>
       </c>
       <c r="E98" t="n">
-        <v>-38.89079304360911</v>
+        <v>-38.76527713626548</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.850141489917611</v>
+        <v>-1.87296137377074</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.116219543923889</v>
+        <v>-3.112252576162846</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-10.4119227090554</v>
       </c>
       <c r="E99" t="n">
-        <v>-41.198835111577</v>
+        <v>-41.07255985066855</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.865014345945812</v>
+        <v>-1.888226998884193</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.358728269461181</v>
+        <v>-3.357995100502044</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-10.57593307579736</v>
       </c>
       <c r="E100" t="n">
-        <v>-43.53238098548057</v>
+        <v>-43.40428589447713</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.196773299955151</v>
+        <v>-2.223651797689215</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.4309323196333</v>
+        <v>-3.419489646949632</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-10.67231364633274</v>
       </c>
       <c r="E101" t="n">
-        <v>-45.85729903181144</v>
+        <v>-45.74017529058936</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.24364374412853</v>
+        <v>-2.265088936183278</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.691770269149009</v>
+        <v>-3.681440442206887</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-10.67934811157239</v>
       </c>
       <c r="E102" t="n">
-        <v>-48.39550378373688</v>
+        <v>-48.27783016579544</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.510189937683231</v>
+        <v>-2.532171914154489</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.739923759000877</v>
+        <v>-3.716671829153972</v>
       </c>
     </row>
   </sheetData>
